--- a/data/trans_orig/IP07A20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0935DD17-E32C-43F9-875C-D27EED2DCCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{425D395F-6407-4328-8532-40397022A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CACC8B53-AB37-48CB-8D45-86D1B6BF0CEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA231A25-5FF6-4E85-B62C-ACF15C8D5D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="459">
   <si>
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2007 (Tasa respuesta: 47,01%)</t>
   </si>
@@ -76,1363 +76,1345 @@
     <t>36,8%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>1,4%</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44E3AC5-6074-43BE-A1F2-6AB60DB05B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F71EE2-4886-4DED-B2EE-61D6609BDD21}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2190,10 +2172,10 @@
         <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2202,13 +2184,13 @@
         <v>3312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2205,13 @@
         <v>47230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -2238,13 +2220,13 @@
         <v>49990</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -2253,18 +2235,18 @@
         <v>97221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2276,13 +2258,13 @@
         <v>88799</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>137</v>
@@ -2291,13 +2273,13 @@
         <v>91559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>271</v>
@@ -2306,13 +2288,13 @@
         <v>180358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2309,13 @@
         <v>110582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>133</v>
@@ -2342,13 +2324,13 @@
         <v>89168</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -2357,13 +2339,13 @@
         <v>199749</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2360,13 @@
         <v>32436</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -2393,10 +2375,10 @@
         <v>17490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>83</v>
@@ -2531,13 +2513,13 @@
         <v>236467</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>303</v>
@@ -2546,13 +2528,13 @@
         <v>202692</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>660</v>
@@ -2561,13 +2543,13 @@
         <v>439159</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,7 +2689,7 @@
         <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2716,13 +2698,13 @@
         <v>12128</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2719,13 @@
         <v>2172</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2752,13 +2734,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2767,13 +2749,13 @@
         <v>2825</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2773,10 @@
         <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2806,10 +2788,10 @@
         <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2821,10 +2803,10 @@
         <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2821,13 @@
         <v>59592</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -2854,13 +2836,13 @@
         <v>66171</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>183</v>
@@ -2869,13 +2851,13 @@
         <v>125763</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2874,13 @@
         <v>126706</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>214</v>
@@ -2907,13 +2889,13 @@
         <v>143867</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>404</v>
@@ -2922,13 +2904,13 @@
         <v>270573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2925,13 @@
         <v>161061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>205</v>
@@ -2958,13 +2940,13 @@
         <v>138807</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>447</v>
@@ -2973,13 +2955,13 @@
         <v>299869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2976,13 @@
         <v>44755</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -3009,13 +2991,13 @@
         <v>27004</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -3024,13 +3006,13 @@
         <v>71760</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3027,13 @@
         <v>9403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3060,13 +3042,13 @@
         <v>5909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -3075,13 +3057,13 @@
         <v>15312</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3078,13 @@
         <v>1363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3111,13 +3093,13 @@
         <v>3266</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3126,13 +3108,13 @@
         <v>4629</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3129,13 @@
         <v>343289</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>473</v>
@@ -3162,13 +3144,13 @@
         <v>318853</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>989</v>
@@ -3177,18 +3159,18 @@
         <v>662142</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7CCC7D-BD3B-431B-ABC8-DDB0D4A52C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993E6C0-A05B-48F8-B457-F99045C49EA4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3224,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3331,13 +3313,13 @@
         <v>33201</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -3346,13 +3328,13 @@
         <v>39939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>104</v>
@@ -3361,13 +3343,13 @@
         <v>73139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3364,13 @@
         <v>10529</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3397,13 +3379,13 @@
         <v>9504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -3412,13 +3394,13 @@
         <v>20032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3415,13 @@
         <v>647</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3448,13 +3430,13 @@
         <v>1926</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3463,13 +3445,13 @@
         <v>2574</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3466,13 @@
         <v>869</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3499,13 +3481,13 @@
         <v>1058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3514,13 +3496,13 @@
         <v>1927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3517,13 @@
         <v>607</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3550,13 +3532,13 @@
         <v>656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3565,13 +3547,13 @@
         <v>1263</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3568,13 @@
         <v>45853</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3601,13 +3583,13 @@
         <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -3616,18 +3598,18 @@
         <v>98935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3639,13 +3621,13 @@
         <v>121919</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -3654,13 +3636,13 @@
         <v>107366</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
@@ -3669,13 +3651,13 @@
         <v>229285</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3672,13 @@
         <v>82220</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -3705,13 +3687,13 @@
         <v>78219</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -3720,13 +3702,13 @@
         <v>160439</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3723,13 @@
         <v>16054</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -3756,13 +3738,13 @@
         <v>17193</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -3771,13 +3753,13 @@
         <v>33247</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3774,13 @@
         <v>3893</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3807,13 +3789,13 @@
         <v>1353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3822,13 +3804,13 @@
         <v>5247</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3825,13 @@
         <v>3331</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3858,13 +3840,13 @@
         <v>1287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3873,13 +3855,13 @@
         <v>4619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3876,13 @@
         <v>227419</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>294</v>
@@ -3909,13 +3891,13 @@
         <v>205418</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>626</v>
@@ -3924,13 +3906,13 @@
         <v>432837</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3929,13 @@
         <v>36289</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3962,13 +3944,13 @@
         <v>42720</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3977,13 +3959,13 @@
         <v>79009</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3980,13 @@
         <v>16341</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4013,13 +3995,13 @@
         <v>19162</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -4028,13 +4010,13 @@
         <v>35503</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4031,13 @@
         <v>3715</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4064,13 +4046,13 @@
         <v>768</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4079,13 +4061,13 @@
         <v>4483</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4082,13 @@
         <v>1588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4115,13 +4097,13 @@
         <v>768</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4130,10 +4112,10 @@
         <v>2356</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>288</v>
@@ -4154,10 +4136,10 @@
         <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4169,10 +4151,10 @@
         <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4184,10 +4166,10 @@
         <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4184,13 @@
         <v>57933</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -4217,13 +4199,13 @@
         <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>173</v>
@@ -4232,13 +4214,13 @@
         <v>121351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4237,13 @@
         <v>191408</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>270</v>
@@ -4270,13 +4252,13 @@
         <v>190024</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>547</v>
@@ -4285,13 +4267,13 @@
         <v>381433</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4288,13 @@
         <v>109090</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>152</v>
@@ -4324,10 +4306,10 @@
         <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>313</v>
@@ -4336,13 +4318,13 @@
         <v>215975</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4339,13 @@
         <v>20417</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -4372,13 +4354,13 @@
         <v>19887</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -4387,13 +4369,13 @@
         <v>40304</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4390,13 @@
         <v>6351</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4423,13 +4405,13 @@
         <v>3179</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -4438,13 +4420,13 @@
         <v>9530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4441,13 @@
         <v>3938</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4474,13 +4456,13 @@
         <v>1943</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -4489,13 +4471,13 @@
         <v>5882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4492,13 @@
         <v>331204</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4525,13 +4507,13 @@
         <v>321919</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>939</v>
@@ -4540,18 +4522,18 @@
         <v>653123</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA60C87-8B2A-4B16-822D-9246DDC64DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E699F9-A719-4750-A8DA-2599CD9A74A6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4712,10 +4694,10 @@
         <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4724,13 +4706,13 @@
         <v>29261</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,10 +4781,10 @@
         <v>347</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4811,10 +4793,10 @@
         <v>3958</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>351</v>
@@ -4865,7 +4847,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>357</v>
@@ -4901,7 +4883,7 @@
         <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>360</v>
@@ -4916,7 +4898,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>357</v>
@@ -4931,7 +4913,7 @@
         <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>361</v>
@@ -4949,13 +4931,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -4964,13 +4946,13 @@
         <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4979,18 +4961,18 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5038,7 +5020,7 @@
         <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5035,13 @@
         <v>90079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -5068,13 +5050,13 @@
         <v>90905</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -5083,13 +5065,13 @@
         <v>180984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5086,13 @@
         <v>22480</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -5119,7 +5101,7 @@
         <v>24487</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>382</v>
@@ -5158,10 +5140,10 @@
         <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5173,10 +5155,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5185,13 +5167,13 @@
         <v>4407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5188,13 @@
         <v>2773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5221,13 +5203,13 @@
         <v>1621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5236,13 +5218,13 @@
         <v>4394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5239,13 @@
         <v>243901</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>359</v>
@@ -5272,13 +5254,13 @@
         <v>249716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>692</v>
@@ -5287,13 +5269,13 @@
         <v>493617</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5292,13 @@
         <v>49929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5325,13 +5307,13 @@
         <v>41498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -5340,13 +5322,13 @@
         <v>91427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5343,13 @@
         <v>22445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5376,13 +5358,13 @@
         <v>28913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -5391,13 +5373,13 @@
         <v>51358</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5394,13 @@
         <v>4988</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5427,13 +5409,13 @@
         <v>2625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5442,13 +5424,13 @@
         <v>7613</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,10 +5448,10 @@
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5484,7 +5466,7 @@
         <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5493,13 +5475,13 @@
         <v>1361</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5496,13 @@
         <v>700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5532,7 +5514,7 @@
         <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>355</v>
@@ -5544,13 +5526,13 @@
         <v>700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5547,13 @@
         <v>78061</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -5580,13 +5562,13 @@
         <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5595,13 +5577,13 @@
         <v>152459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,7 +5621,7 @@
         <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -5648,13 +5630,13 @@
         <v>377552</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5651,13 @@
         <v>131066</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>192</v>
@@ -5684,13 +5666,13 @@
         <v>133739</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -5699,13 +5681,13 @@
         <v>264805</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5702,13 @@
         <v>29567</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5735,13 +5717,13 @@
         <v>31070</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -5750,13 +5732,13 @@
         <v>60638</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5753,13 @@
         <v>5078</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>455</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5786,13 +5768,13 @@
         <v>1361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5801,13 +5783,13 @@
         <v>6439</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>460</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5804,13 @@
         <v>3473</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5837,13 +5819,13 @@
         <v>1621</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>257</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>463</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5852,13 +5834,13 @@
         <v>5094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>464</v>
+        <v>91</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5855,13 @@
         <v>358600</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5888,13 +5870,13 @@
         <v>355928</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1001</v>
@@ -5903,18 +5885,18 @@
         <v>714528</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{425D395F-6407-4328-8532-40397022A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DA7613-077F-45D7-BAA5-2DD0E275216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA231A25-5FF6-4E85-B62C-ACF15C8D5D0C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6CC47A06-4091-4900-BE95-65A90777FB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="465">
   <si>
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2007 (Tasa respuesta: 47,01%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1348 +73,1366 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2016 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F71EE2-4886-4DED-B2EE-61D6609BDD21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8362E9A-D22E-4CA2-BD03-38F08E718B29}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1944,10 +1962,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>17382</v>
+        <v>21943</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1959,10 +1977,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>21943</v>
+        <v>17382</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1995,10 +2013,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>20613</v>
+        <v>19586</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2010,10 +2028,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>19586</v>
+        <v>20613</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2046,10 +2064,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>5290</v>
+        <v>4416</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2061,10 +2079,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>4416</v>
+        <v>5290</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2097,10 +2115,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>3301</v>
+        <v>1378</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2112,10 +2130,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1378</v>
+        <v>3301</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2148,31 +2166,31 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>644</v>
+        <v>2668</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2668</v>
+        <v>644</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>55</v>
@@ -2199,25 +2217,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>49990</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>49990</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -2252,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>88799</v>
+        <v>91559</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2267,10 +2285,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I10" s="7">
-        <v>91559</v>
+        <v>88799</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2303,10 +2321,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7">
-        <v>110582</v>
+        <v>89168</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2318,10 +2336,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="I11" s="7">
-        <v>89168</v>
+        <v>110582</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2354,10 +2372,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>32436</v>
+        <v>17490</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2369,19 +2387,19 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7">
-        <v>17490</v>
+        <v>32436</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -2390,13 +2408,13 @@
         <v>49926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,31 +2426,31 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>3931</v>
+        <v>3877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>3877</v>
+        <v>3931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2441,13 +2459,13 @@
         <v>7808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,31 +2477,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>719</v>
+        <v>598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>598</v>
+        <v>719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2492,13 +2510,13 @@
         <v>1317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,25 +2525,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>202692</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>357</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236467</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>303</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -2554,40 +2572,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30365</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="7">
         <v>30</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20525</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30365</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -2596,13 +2614,13 @@
         <v>50890</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,31 +2629,31 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>30054</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
         <v>45</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>29866</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30054</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>115</v>
@@ -2662,10 +2680,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>7029</v>
+        <v>5099</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>119</v>
@@ -2677,10 +2695,10 @@
         <v>121</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>5099</v>
+        <v>7029</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>122</v>
@@ -2689,7 +2707,7 @@
         <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -2698,13 +2716,13 @@
         <v>12128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,34 +2731,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>654</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2172</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>654</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2749,13 +2767,13 @@
         <v>2825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2785,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2800,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,25 +2833,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66171</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>88</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>59592</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66171</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2868,34 +2886,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>214</v>
+      </c>
+      <c r="D22" s="7">
+        <v>143867</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="7">
         <v>190</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>126706</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="7">
-        <v>214</v>
-      </c>
-      <c r="I22" s="7">
-        <v>143867</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>404</v>
@@ -2904,13 +2922,13 @@
         <v>270573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,34 +2937,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>205</v>
+      </c>
+      <c r="D23" s="7">
+        <v>138807</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="7">
         <v>242</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>161061</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="7">
-        <v>205</v>
-      </c>
-      <c r="I23" s="7">
-        <v>138807</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>447</v>
@@ -2955,13 +2973,13 @@
         <v>299869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,34 +2988,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7">
+        <v>27004</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="7">
         <v>68</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>44755</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="7">
-        <v>40</v>
-      </c>
-      <c r="I24" s="7">
-        <v>27004</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -3006,13 +3024,13 @@
         <v>71760</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,34 +3039,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5909</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="7">
         <v>14</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>9403</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5909</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -3057,13 +3075,13 @@
         <v>15312</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,34 +3090,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3266</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1363</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3266</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3108,13 +3126,13 @@
         <v>4629</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,25 +3141,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>473</v>
+      </c>
+      <c r="D27" s="7">
+        <v>318853</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>516</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>343289</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>473</v>
-      </c>
-      <c r="I27" s="7">
-        <v>318853</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3170,7 +3188,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993E6C0-A05B-48F8-B457-F99045C49EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CD231E-CD6C-4D73-B103-34D590BA0E1A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3206,7 +3224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3307,34 +3325,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7">
+        <v>39939</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="7">
         <v>47</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>33201</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="7">
-        <v>57</v>
-      </c>
-      <c r="I4" s="7">
-        <v>39939</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>104</v>
@@ -3343,13 +3361,13 @@
         <v>73139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,34 +3376,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9504</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="7">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>10529</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9504</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -3394,13 +3412,13 @@
         <v>20032</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,34 +3427,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>647</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1926</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3445,13 +3463,13 @@
         <v>2574</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,31 +3481,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>869</v>
+        <v>1058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1058</v>
+        <v>869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3496,13 +3514,13 @@
         <v>1927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,31 +3532,31 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3547,13 +3565,13 @@
         <v>1263</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,25 +3580,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -3615,34 +3633,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7">
+        <v>107366</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="7">
         <v>177</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>121919</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="H10" s="7">
-        <v>153</v>
-      </c>
-      <c r="I10" s="7">
-        <v>107366</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
@@ -3651,13 +3669,13 @@
         <v>229285</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,34 +3684,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>113</v>
+      </c>
+      <c r="D11" s="7">
+        <v>78219</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="7">
         <v>121</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>82220</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H11" s="7">
-        <v>113</v>
-      </c>
-      <c r="I11" s="7">
-        <v>78219</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -3702,13 +3720,13 @@
         <v>160439</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,34 +3735,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="7">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>16054</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H12" s="7">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17193</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -3753,13 +3771,13 @@
         <v>33247</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,34 +3786,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1353</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3893</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1353</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3804,13 +3822,13 @@
         <v>5247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,34 +3837,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1287</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3331</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1287</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3855,13 +3873,13 @@
         <v>4619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,25 +3888,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>294</v>
+      </c>
+      <c r="D15" s="7">
+        <v>205418</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>332</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>227419</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>294</v>
-      </c>
-      <c r="I15" s="7">
-        <v>205418</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -3917,40 +3935,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7">
+        <v>42720</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="7">
         <v>53</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>36289</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42720</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3959,13 +3977,13 @@
         <v>79009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,34 +3992,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19162</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>16341</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="H17" s="7">
-        <v>26</v>
-      </c>
-      <c r="I17" s="7">
-        <v>19162</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -4010,13 +4028,13 @@
         <v>35503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,34 +4043,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>768</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3715</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>768</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4061,13 +4079,13 @@
         <v>4483</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,34 +4094,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>768</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1588</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>768</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4112,13 +4130,13 @@
         <v>2356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4151,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4148,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4163,13 +4181,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,25 +4196,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4231,34 +4249,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>270</v>
+      </c>
+      <c r="D22" s="7">
+        <v>190024</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H22" s="7">
         <v>277</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>191408</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="H22" s="7">
-        <v>270</v>
-      </c>
-      <c r="I22" s="7">
-        <v>190024</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>547</v>
@@ -4267,13 +4285,13 @@
         <v>381433</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,34 +4300,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>152</v>
+      </c>
+      <c r="D23" s="7">
+        <v>106885</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H23" s="7">
         <v>161</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>109090</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="H23" s="7">
-        <v>152</v>
-      </c>
-      <c r="I23" s="7">
-        <v>106885</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M23" s="7">
         <v>313</v>
@@ -4318,13 +4336,13 @@
         <v>215975</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,34 +4351,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19887</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24" s="7">
         <v>29</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>20417</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H24" s="7">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19887</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -4369,13 +4387,13 @@
         <v>40304</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,34 +4402,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3179</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>6351</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3179</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -4420,13 +4438,13 @@
         <v>9530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,34 +4453,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1943</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3938</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1943</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -4471,13 +4489,13 @@
         <v>5882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,25 +4504,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>457</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321919</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>331204</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>457</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321919</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4533,7 +4551,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4552,7 +4570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E699F9-A719-4750-A8DA-2599CD9A74A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D5C89-658E-424C-86D5-5C9E75222EC4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4569,7 +4587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4670,34 +4688,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13935</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" s="7">
         <v>21</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>15325</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13935</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4706,13 +4724,13 @@
         <v>29261</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,34 +4739,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13921</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="7">
         <v>26</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>18543</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13921</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4757,13 +4775,13 @@
         <v>32465</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,31 +4790,31 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3958</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2099</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3958</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>351</v>
@@ -4823,34 +4841,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>671</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4859,13 +4877,13 @@
         <v>671</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4895,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4910,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,25 +4943,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -4978,34 +4996,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>189</v>
+      </c>
+      <c r="D10" s="7">
+        <v>132703</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H10" s="7">
         <v>172</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>124162</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H10" s="7">
-        <v>189</v>
-      </c>
-      <c r="I10" s="7">
-        <v>132703</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>361</v>
@@ -5014,13 +5032,13 @@
         <v>256865</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,34 +5047,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7">
+        <v>90905</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="7">
         <v>121</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>90079</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H11" s="7">
-        <v>132</v>
-      </c>
-      <c r="I11" s="7">
-        <v>90905</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -5065,13 +5083,13 @@
         <v>180984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,34 +5098,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7">
+        <v>24487</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>22480</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
-      <c r="I12" s="7">
-        <v>24487</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -5116,13 +5134,13 @@
         <v>46968</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,34 +5149,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4407</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5167,13 +5185,13 @@
         <v>4407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,34 +5200,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1621</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2773</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1621</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5218,13 +5236,13 @@
         <v>4394</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,25 +5251,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>359</v>
+      </c>
+      <c r="D15" s="7">
+        <v>249716</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>243901</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>359</v>
-      </c>
-      <c r="I15" s="7">
-        <v>249716</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -5280,40 +5298,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>58</v>
+      </c>
+      <c r="D16" s="7">
+        <v>41498</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16" s="7">
         <v>68</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>49929</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="H16" s="7">
-        <v>58</v>
-      </c>
-      <c r="I16" s="7">
-        <v>41498</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -5322,13 +5340,13 @@
         <v>91427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,34 +5355,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7">
+        <v>28913</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H17" s="7">
         <v>32</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22445</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="H17" s="7">
-        <v>40</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28913</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -5373,13 +5391,13 @@
         <v>51358</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,34 +5406,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2625</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4988</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2625</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5424,13 +5442,13 @@
         <v>7613</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,34 +5457,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1361</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1361</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5475,13 +5493,13 @@
         <v>1361</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,34 +5508,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>700</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5526,13 +5544,13 @@
         <v>700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,25 +5559,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5594,10 +5612,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D22" s="7">
-        <v>189416</v>
+        <v>188136</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>428</v>
@@ -5609,10 +5627,10 @@
         <v>430</v>
       </c>
       <c r="H22" s="7">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I22" s="7">
-        <v>188136</v>
+        <v>189416</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>431</v>
@@ -5621,7 +5639,7 @@
         <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>263</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -5630,13 +5648,13 @@
         <v>377552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,34 +5663,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>192</v>
+      </c>
+      <c r="D23" s="7">
+        <v>133739</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23" s="7">
         <v>179</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>131066</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H23" s="7">
-        <v>192</v>
-      </c>
-      <c r="I23" s="7">
-        <v>133739</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -5681,13 +5699,13 @@
         <v>264805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,34 +5714,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>46</v>
+      </c>
+      <c r="D24" s="7">
+        <v>31070</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H24" s="7">
         <v>40</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>29567</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H24" s="7">
-        <v>46</v>
-      </c>
-      <c r="I24" s="7">
-        <v>31070</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -5732,13 +5750,13 @@
         <v>60638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,34 +5765,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1361</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5078</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1361</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5783,13 +5801,13 @@
         <v>6439</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,34 +5816,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1621</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3473</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1621</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5834,13 +5852,13 @@
         <v>5094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>91</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,25 +5867,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>355928</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>492</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>358600</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>355928</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -5896,7 +5914,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
